--- a/data_bfi.xlsx
+++ b/data_bfi.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dstanley/RDevelopment/psyc6060bookdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C6CA512-8D29-9048-8E06-543DED17D7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3BC323-D2C3-9F4E-B8BF-2D629DACCBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16280"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_bfi" sheetId="1" r:id="rId1"/>
+    <sheet name="BFI  recoded" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>age</t>
   </si>
@@ -125,12 +126,42 @@
   </si>
   <si>
     <t>reverse_keyed</t>
+  </si>
+  <si>
+    <t>agree1</t>
+  </si>
+  <si>
+    <t>agree2</t>
+  </si>
+  <si>
+    <t>agree3</t>
+  </si>
+  <si>
+    <t>agree4</t>
+  </si>
+  <si>
+    <t>agree5</t>
+  </si>
+  <si>
+    <t>con1</t>
+  </si>
+  <si>
+    <t>con2</t>
+  </si>
+  <si>
+    <t>con3</t>
+  </si>
+  <si>
+    <t>con4</t>
+  </si>
+  <si>
+    <t>con5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -970,11 +1001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,34 +1026,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -1978,4 +2009,817 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F8507A-DD2C-5F4D-B747-B102BFC3352C}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1">
+        <v>6</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>